--- a/2025-10-18/18_oddspedia_fixtures.xlsx
+++ b/2025-10-18/18_oddspedia_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nottingham Forest vs Chelsea</t>
+          <t>Fulham vs Arsenal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,583 +488,472 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18th Oct 12:30</t>
+          <t>18th Oct 17:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64 of 87 Tips</t>
+          <t>81 of 106 Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fulham vs Arsenal</t>
+          <t>Torino vs Napoli</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18th Oct 17:30</t>
+          <t>18th Oct 17:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45 of 61 Tips</t>
+          <t>71 of 78 Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sevilla vs Mallorca</t>
+          <t>Marseille vs Le Havre</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18th Oct 13:00</t>
+          <t>18th Oct 20:05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36 of 40 Tips</t>
+          <t>51 of 54 Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Man City vs Everton</t>
+          <t>Atletico Madrid vs Osasuna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18th Oct 15:00</t>
+          <t>18th Oct 20:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35 of 44 Tips</t>
+          <t>50 of 54 Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Astana vs Aktobe</t>
+          <t>Angers vs Monaco</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Astana</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19th Oct 13:00</t>
+          <t>18th Oct 18:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32 of 33 Tips</t>
+          <t>37 of 42 Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.60</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KMKM vs Azam FC</t>
+          <t>Astana vs Aktobe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azam FC</t>
+          <t>Astana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18th Oct 14:15</t>
+          <t>19th Oct 13:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29 of 29 Tips</t>
+          <t>32 of 33 Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Atletico Madrid vs Osasuna</t>
+          <t>Bayern Munich vs Borussia Dortmund</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18th Oct 20:00</t>
+          <t>18th Oct 17:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25 of 27 Tips</t>
+          <t>25 of 30 Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Orijent vs NK Karlovac</t>
+          <t>Liverpool vs Man Utd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18th Oct 14:30</t>
+          <t>19th Oct 16:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25 of 25 Tips</t>
+          <t>24 of 34 Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marseille vs Le Havre</t>
+          <t>Cienciano vs Cusco FC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18th Oct 20:05</t>
+          <t>19th Oct 00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24 of 24 Tips</t>
+          <t>22 of 23 Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.35</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cienciano vs Cusco FC</t>
+          <t>Getafe vs Real Madrid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19th Oct 00:00</t>
+          <t>19th Oct 20:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22 of 23 Tips</t>
+          <t>20 of 23 Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Torino vs Napoli</t>
+          <t>FC Ordabasy vs Okzhetpes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>FC Ordabasy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18th Oct 17:00</t>
+          <t>19th Oct 14:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21 of 25 Tips</t>
+          <t>18 of 18 Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Barcelona vs Girona</t>
+          <t>AC Milan vs Fiorentina</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18th Oct 15:15</t>
+          <t>19th Oct 19:45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21 of 23 Tips</t>
+          <t>16 of 19 Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Liverpool vs Man Utd</t>
+          <t>Barcelona vs Olympiacos</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19th Oct 16:30</t>
+          <t>21st Oct 17:45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20 of 30 Tips</t>
+          <t>15 of 18 Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Getafe vs Real Madrid</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>19th Oct 20:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>19 of 21 Tips</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RB Leipzig vs Hamburg</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>18th Oct 14:30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>19 of 19 Tips</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Cimarrones de Sonora FC vs Universidad Guadalajara II</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Double Chance: X2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>18th Oct 03:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>17 of 17 Tips</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="H18">
-        <f>AVERAGE(F2:F17)</f>
+      <c r="H15">
+        <f>AVERAGE(F2:F14)</f>
         <v/>
       </c>
     </row>
